--- a/data/trans_orig/P50_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6321</v>
+        <v>4998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004330377731514221</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02629654520511159</v>
+        <v>0.020793330695654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5142</v>
+        <v>5712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002454859835741142</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01212767520905862</v>
+        <v>0.01347077275223531</v>
       </c>
     </row>
     <row r="5">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7529</v>
+        <v>7638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008841781825340704</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03132244374656629</v>
+        <v>0.03177766795527672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5004</v>
+        <v>4935</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005423678242773349</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02725019643116237</v>
+        <v>0.02687379510573281</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -894,19 +894,19 @@
         <v>3121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9193</v>
+        <v>9144</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007361376457453895</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002243309192942633</v>
+        <v>0.002289795690365928</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.021680992790543</v>
+        <v>0.02156519379975708</v>
       </c>
     </row>
     <row r="7">
@@ -923,19 +923,19 @@
         <v>237207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231478</v>
+        <v>231477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239424</v>
+        <v>239417</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9868278404431451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.962996797361521</v>
+        <v>0.9629915642887166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.996050821556702</v>
+        <v>0.996021117016346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -944,7 +944,7 @@
         <v>182650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>178642</v>
+        <v>178711</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>183646</v>
@@ -953,7 +953,7 @@
         <v>0.9945763217572267</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9727498035688377</v>
+        <v>0.9731262048942672</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -965,19 +965,19 @@
         <v>419857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>413933</v>
+        <v>413324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>422989</v>
+        <v>422978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9901837637068049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9762121627523518</v>
+        <v>0.9747767039611791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9975707259882014</v>
+        <v>0.9975443643616863</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6685</v>
+        <v>6379</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002080286223336823</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0110288193310231</v>
+        <v>0.01052393463934788</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6291</v>
+        <v>5555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001181761871443837</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005896273798157031</v>
+        <v>0.005206530146545527</v>
       </c>
     </row>
     <row r="10">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5034</v>
+        <v>5349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00157243966078922</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008305031881784854</v>
+        <v>0.008825748001033076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5376</v>
+        <v>5030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002164793774882465</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01166596143972539</v>
+        <v>0.01091518754070105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6582</v>
+        <v>6735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001828291278939652</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006168631301420678</v>
+        <v>0.006312796434704815</v>
       </c>
     </row>
     <row r="11">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6474</v>
+        <v>6084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003161985249169835</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01068121243126529</v>
+        <v>0.01003750611794237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1224,19 +1224,19 @@
         <v>3107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8551</v>
+        <v>8683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006741820017288049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001963862834949255</v>
+        <v>0.001949809310789661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01855462860469121</v>
+        <v>0.01884221805808408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1245,19 +1245,19 @@
         <v>5023</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1624</v>
+        <v>1445</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11004</v>
+        <v>10892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004708199745436581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00152166948883735</v>
+        <v>0.001354568928514333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01031370881546842</v>
+        <v>0.01020888131304403</v>
       </c>
     </row>
     <row r="12">
@@ -1274,19 +1274,19 @@
         <v>601978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>595440</v>
+        <v>596561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>604924</v>
+        <v>605173</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9931852888667041</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9823997027067396</v>
+        <v>0.9842494256641585</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9980467082915362</v>
+        <v>0.9984569444672565</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>428</v>
@@ -1295,19 +1295,19 @@
         <v>456735</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>450782</v>
+        <v>451323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>459689</v>
+        <v>459811</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9910933862078295</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9781745775426017</v>
+        <v>0.9793477736112352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9975033497519431</v>
+        <v>0.9977680805290451</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1018</v>
@@ -1316,19 +1316,19 @@
         <v>1058713</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1050975</v>
+        <v>1051328</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1063248</v>
+        <v>1063694</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9922817471041799</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9850288645954527</v>
+        <v>0.98536038086011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9965317775531581</v>
+        <v>0.9969505374513813</v>
       </c>
     </row>
     <row r="13">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6164</v>
+        <v>5736</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002726251598745001</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01010078288036605</v>
+        <v>0.009398625405660971</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6820</v>
+        <v>6433</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003990006662968666</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01396154491910018</v>
+        <v>0.01316967919839708</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1509,19 +1509,19 @@
         <v>3613</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8638</v>
+        <v>8440</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003288061307949812</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0008694404073235174</v>
+        <v>0.0008562933912434099</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007861965219339632</v>
+        <v>0.007681837272407064</v>
       </c>
     </row>
     <row r="16">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5599</v>
+        <v>5231</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002137680553939352</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0114622626249831</v>
+        <v>0.01070871822276515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5255</v>
+        <v>5231</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0009503183998073334</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004783073059237327</v>
+        <v>0.004760597927704081</v>
       </c>
     </row>
     <row r="17">
@@ -1601,7 +1601,7 @@
         <v>608635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>604135</v>
+        <v>604563</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>610299</v>
@@ -1610,7 +1610,7 @@
         <v>0.997273748401255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9898992171196339</v>
+        <v>0.9906013745943386</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1622,19 +1622,19 @@
         <v>485467</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>480301</v>
+        <v>480558</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>487517</v>
+        <v>487522</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.993872312783092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9832963483957522</v>
+        <v>0.9838223279263609</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9980688745909669</v>
+        <v>0.9980805460621981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1042</v>
@@ -1643,19 +1643,19 @@
         <v>1094101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1088375</v>
+        <v>1088964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1097045</v>
+        <v>1097105</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9957616202922428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9905503846516406</v>
+        <v>0.9910860554509753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9984411667616164</v>
+        <v>0.9984952753567048</v>
       </c>
     </row>
     <row r="18">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6295</v>
+        <v>5471</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003171861830289345</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01864216489481462</v>
+        <v>0.016201654459933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5940</v>
+        <v>5949</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001247679257789611</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006920062137890511</v>
+        <v>0.006930272060563345</v>
       </c>
     </row>
     <row r="21">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5993</v>
+        <v>6036</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003775670985213176</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01150804393249844</v>
+        <v>0.01159110334525057</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6487</v>
+        <v>5464</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003204564817248662</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01921210053733742</v>
+        <v>0.01618092818628042</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1899,19 +1899,19 @@
         <v>3048</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8487</v>
+        <v>8134</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003551021439334303</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00113639856865521</v>
+        <v>0.001137078550248976</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.00988673976954025</v>
+        <v>0.009476519416854843</v>
       </c>
     </row>
     <row r="22">
@@ -1928,7 +1928,7 @@
         <v>518764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>514737</v>
+        <v>514694</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>520730</v>
@@ -1937,7 +1937,7 @@
         <v>0.9962243290147869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9884919560675016</v>
+        <v>0.9884088966547495</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>335499</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>330048</v>
+        <v>331089</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>337652</v>
@@ -1958,7 +1958,7 @@
         <v>0.993623573352462</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9774793769278801</v>
+        <v>0.9805617957639678</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1970,19 +1970,19 @@
         <v>854264</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>848966</v>
+        <v>848222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>857392</v>
+        <v>857396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.995201299302876</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.98902988332183</v>
+        <v>0.9881629864550368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9988453291968247</v>
+        <v>0.9988498880575637</v>
       </c>
     </row>
     <row r="23">
@@ -2168,19 +2168,19 @@
         <v>4246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1135</v>
+        <v>1038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10656</v>
+        <v>9603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01163920452640547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003111688806486458</v>
+        <v>0.002846308247923276</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02920858017661329</v>
+        <v>0.02632089589745811</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>4246</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1038</v>
+        <v>1129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10679</v>
+        <v>10676</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00873430500193373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002135731639128178</v>
+        <v>0.002323080481503039</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02196462869555591</v>
+        <v>0.02195984662783101</v>
       </c>
     </row>
     <row r="27">
@@ -2231,19 +2231,19 @@
         <v>360594</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>354184</v>
+        <v>355237</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>363705</v>
+        <v>363802</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9883607954735946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9707914198233867</v>
+        <v>0.973679104102542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9968883111935135</v>
+        <v>0.9971536917520767</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>106</v>
@@ -2265,19 +2265,19 @@
         <v>481934</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>475501</v>
+        <v>475504</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>485142</v>
+        <v>485051</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9912656949980663</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9780353713044443</v>
+        <v>0.978040153372169</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9978642683608718</v>
+        <v>0.997676919518497</v>
       </c>
     </row>
     <row r="28">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>8485</v>
+        <v>8910</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0008780127920626552</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003236564322628877</v>
+        <v>0.00339884780108139</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7280</v>
+        <v>7904</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0005391537397452019</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001705219235926317</v>
+        <v>0.001851268949865502</v>
       </c>
     </row>
     <row r="40">
@@ -2958,19 +2958,19 @@
         <v>2617</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7102</v>
+        <v>7140</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0009982114680604031</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0002763524158159796</v>
+        <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.002709134614138487</v>
+        <v>0.00272348994443007</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -2979,19 +2979,19 @@
         <v>4018</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9964</v>
+        <v>10144</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002438329994593581</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.000607871825481171</v>
+        <v>0.0006109516406269073</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006047067262122662</v>
+        <v>0.006156495177476352</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3000,19 +3000,19 @@
         <v>6634</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2450</v>
+        <v>2890</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13256</v>
+        <v>13351</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001554008836319038</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0005737923964170249</v>
+        <v>0.0006770016140866458</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003105007624417039</v>
+        <v>0.003127155411810478</v>
       </c>
     </row>
     <row r="41">
@@ -3029,19 +3029,19 @@
         <v>10254</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5155</v>
+        <v>5477</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17323</v>
+        <v>18526</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003911519485885098</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001966396335122354</v>
+        <v>0.002089169772744311</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.006607797015536075</v>
+        <v>0.007066784431708968</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3050,19 +3050,19 @@
         <v>6229</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2895</v>
+        <v>2131</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13135</v>
+        <v>13730</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003780568218250182</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001757326267866234</v>
+        <v>0.001293256749823051</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.007971655578614519</v>
+        <v>0.008332880106544968</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>16</v>
@@ -3071,19 +3071,19 @@
         <v>16484</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9512</v>
+        <v>9781</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26463</v>
+        <v>27413</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003860980333321851</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002227922198143905</v>
+        <v>0.002291121288540986</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.006198476646616188</v>
+        <v>0.00642113742264974</v>
       </c>
     </row>
     <row r="42">
@@ -3100,19 +3100,19 @@
         <v>2606413</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2597824</v>
+        <v>2596818</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2612779</v>
+        <v>2612716</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9942122562539918</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9909361117159737</v>
+        <v>0.9905521511747255</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9966404409214864</v>
+        <v>0.9966167366975157</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1512</v>
@@ -3121,19 +3121,19 @@
         <v>1637424</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1629103</v>
+        <v>1628709</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1642529</v>
+        <v>1642750</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9937811017871563</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9887306125040924</v>
+        <v>0.9884916690090217</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9968789534344463</v>
+        <v>0.9970135357517496</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3962</v>
@@ -3142,19 +3142,19 @@
         <v>4243837</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4231603</v>
+        <v>4231954</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4252011</v>
+        <v>4252560</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9940458570906139</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9911802262329467</v>
+        <v>0.9912623308624855</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9959603710012063</v>
+        <v>0.9960890393778221</v>
       </c>
     </row>
     <row r="43">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4443</v>
+        <v>3621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004780600308157737</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02386285082334956</v>
+        <v>0.01944614764309257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4485</v>
+        <v>5028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002232622153268693</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0112483698936294</v>
+        <v>0.01261222287416822</v>
       </c>
     </row>
     <row r="5">
@@ -3659,7 +3659,7 @@
         <v>185303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>181750</v>
+        <v>182572</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>186193</v>
@@ -3668,7 +3668,7 @@
         <v>0.9952193996918423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9761371491766505</v>
+        <v>0.9805538523569075</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>397795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>394200</v>
+        <v>393657</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>398685</v>
@@ -3689,7 +3689,7 @@
         <v>0.9977673778467313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9887516301063706</v>
+        <v>0.9873877771258316</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5195</v>
+        <v>7281</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002453096734824704</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0126710722657117</v>
+        <v>0.01775974022476522</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5017</v>
+        <v>5001</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00109215115370313</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0054480031449973</v>
+        <v>0.005430325640358422</v>
       </c>
     </row>
     <row r="10">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5864</v>
+        <v>5065</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001997574044834831</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01147827201085714</v>
+        <v>0.009913833511571908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5162</v>
+        <v>5109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001108227625387704</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005605394485456825</v>
+        <v>0.00554811984552812</v>
       </c>
     </row>
     <row r="11">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5775</v>
+        <v>6264</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00244105929146916</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01130274988128799</v>
+        <v>0.01226104955969842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6275</v>
+        <v>6936</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001354267366964684</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.006814410919599068</v>
+        <v>0.007531459791302931</v>
       </c>
     </row>
     <row r="12">
@@ -3973,7 +3973,7 @@
         <v>508630</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>503851</v>
+        <v>502967</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>510898</v>
@@ -3982,7 +3982,7 @@
         <v>0.995561366663696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.986206457418772</v>
+        <v>0.9844773023436291</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>408987</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>404798</v>
+        <v>402712</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>409993</v>
@@ -4003,7 +4003,7 @@
         <v>0.9975469032651753</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9873289277342865</v>
+        <v>0.9822402597752323</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4015,19 +4015,19 @@
         <v>917619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>912187</v>
+        <v>911652</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>919888</v>
+        <v>919881</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9964453538539445</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9905468283896858</v>
+        <v>0.989966330371589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9989092605468857</v>
+        <v>0.9989026579621617</v>
       </c>
     </row>
     <row r="13">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4877</v>
+        <v>4909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002022568276521047</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01010201224152978</v>
+        <v>0.01016816385828275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6828</v>
+        <v>5195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009100930013096266</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006364123873764588</v>
+        <v>0.004842404526630518</v>
       </c>
     </row>
     <row r="15">
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3763</v>
+        <v>4085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001576734814389644</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006377744321406631</v>
+        <v>0.006922159369697976</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3751</v>
+        <v>4668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001924857770048953</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007769258443011334</v>
+        <v>0.009669419193373649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6441</v>
+        <v>6373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001733379348578481</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006004174912634334</v>
+        <v>0.005940200110778593</v>
       </c>
     </row>
     <row r="17">
@@ -4300,7 +4300,7 @@
         <v>589159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>586326</v>
+        <v>586004</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>590089</v>
@@ -4309,7 +4309,7 @@
         <v>0.9984232651856103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9936222556785934</v>
+        <v>0.9930778406303018</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>480834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>476434</v>
+        <v>476514</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>482740</v>
@@ -4330,7 +4330,7 @@
         <v>0.9960525739534301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9869366602566693</v>
+        <v>0.9871035378815494</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4342,19 +4342,19 @@
         <v>1069993</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1065225</v>
+        <v>1064311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1071903</v>
+        <v>1071904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9973565276501118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9929123852681037</v>
+        <v>0.9920602434962134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9991371137436285</v>
+        <v>0.9991378799466447</v>
       </c>
     </row>
     <row r="18">
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6600</v>
+        <v>5924</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002657538486945285</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01616820462613348</v>
+        <v>0.01451281187538202</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5447</v>
+        <v>5485</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001137541525801304</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005712327258834808</v>
+        <v>0.005751522599875217</v>
       </c>
     </row>
     <row r="20">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5485</v>
+        <v>5496</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001996773620093694</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01005630150508954</v>
+        <v>0.01007730793067388</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5449</v>
+        <v>5428</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00114206806394122</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.005713628681005562</v>
+        <v>0.005691683550204029</v>
       </c>
     </row>
     <row r="22">
@@ -4619,7 +4619,7 @@
         <v>544332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>539936</v>
+        <v>539925</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>545421</v>
@@ -4628,7 +4628,7 @@
         <v>0.9980032263799063</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9899436984949105</v>
+        <v>0.9899226920693261</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>407099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>401584</v>
+        <v>402260</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>408184</v>
@@ -4649,7 +4649,7 @@
         <v>0.9973424615130547</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9838317953738647</v>
+        <v>0.9854871881246181</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>951431</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>946985</v>
+        <v>945905</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>953605</v>
@@ -4670,7 +4670,7 @@
         <v>0.9977203904102575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.993058403772356</v>
+        <v>0.9919258042295402</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6515</v>
+        <v>6365</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006274464416681588</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0374083136375958</v>
+        <v>0.03654845953312655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5059</v>
+        <v>6249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00192905813133611</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008931719703719422</v>
+        <v>0.0110314033564933</v>
       </c>
     </row>
     <row r="27">
@@ -4935,7 +4935,7 @@
         <v>173060</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>167638</v>
+        <v>167788</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>174153</v>
@@ -4944,7 +4944,7 @@
         <v>0.9937255355833184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9625916863624042</v>
+        <v>0.9634515404668735</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>565357</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>561391</v>
+        <v>560201</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>566450</v>
@@ -4965,7 +4965,7 @@
         <v>0.9980709418686639</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9910682802962812</v>
+        <v>0.9889685966435067</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4730</v>
+        <v>4795</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003960078259936559</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01980753628046018</v>
+        <v>0.02007831136767052</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4676</v>
+        <v>5752</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003217714720877923</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01590981524095935</v>
+        <v>0.01957155521230399</v>
       </c>
     </row>
     <row r="32">
@@ -5217,7 +5217,7 @@
         <v>237871</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>234087</v>
+        <v>234022</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>238817</v>
@@ -5226,7 +5226,7 @@
         <v>0.9960399217400634</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9801924637195398</v>
+        <v>0.9799216886323294</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5251,7 +5251,7 @@
         <v>292969</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>289239</v>
+        <v>288163</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>293915</v>
@@ -5260,7 +5260,7 @@
         <v>0.996782285279122</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9840901847590405</v>
+        <v>0.980428444787696</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5631,19 +5631,19 @@
         <v>3957</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>980</v>
+        <v>1012</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9911</v>
+        <v>9885</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002295333624128666</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0005681780282503282</v>
+        <v>0.0005871086643824994</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005749113733114211</v>
+        <v>0.00573415478114423</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -5652,19 +5652,19 @@
         <v>3957</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11032</v>
+        <v>10237</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0009199581903943525</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0002529818349238565</v>
+        <v>0.0002523430997993667</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002564847299456905</v>
+        <v>0.002380050327720276</v>
       </c>
     </row>
     <row r="40">
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5611</v>
+        <v>5986</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0003959711911594336</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.002176995976395667</v>
+        <v>0.002322599569026816</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5094</v>
+        <v>6113</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0002372679261359831</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.001184225031725385</v>
+        <v>0.001421258706474963</v>
       </c>
     </row>
     <row r="41">
@@ -5744,19 +5744,19 @@
         <v>4212</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9741</v>
+        <v>10010</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001634375548692954</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0004213693587859381</v>
+        <v>0.0004229240608732927</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.003779438779397292</v>
+        <v>0.003883995412851201</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6815</v>
+        <v>7166</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001172852916386559</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.003952988791775536</v>
+        <v>0.004156762399497167</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -5789,16 +5789,16 @@
         <v>2179</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13015</v>
+        <v>12609</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001449399595228322</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0005066251031808292</v>
+        <v>0.0005065915108083796</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.003025920063158045</v>
+        <v>0.002931468280705846</v>
       </c>
     </row>
     <row r="42">
@@ -5815,19 +5815,19 @@
         <v>2572120</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2566240</v>
+        <v>2564968</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2575476</v>
+        <v>2575469</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9979696532601476</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9956883930761722</v>
+        <v>0.9951947538120423</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9992717582997148</v>
+        <v>0.999268924422508</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1675</v>
@@ -5836,19 +5836,19 @@
         <v>1717955</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1711309</v>
+        <v>1711152</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1721860</v>
+        <v>1721839</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9965318134594848</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9926766104388631</v>
+        <v>0.9925854805742134</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9987969736102615</v>
+        <v>0.9987849519338663</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4099</v>
@@ -5857,19 +5857,19 @@
         <v>4290075</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4281209</v>
+        <v>4281520</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4295357</v>
+        <v>4295912</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9973933742882414</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9953321589119136</v>
+        <v>0.9954043454851147</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9986212487466877</v>
+        <v>0.9987504807047001</v>
       </c>
     </row>
     <row r="43">
